--- a/data/获取数据/政策导向指标/非国企20年数据/688671.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/688671.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>碧兴物联</t>
   </si>
   <si>
-    <t>688671</t>
-  </si>
-  <si>
     <t>2023-08-09</t>
   </si>
   <si>
@@ -230,6 +254,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>何愿平</t>
+  </si>
+  <si>
+    <t>何愿平;深圳市中新汇股权投资合伙企业(有限合伙);深圳市中新宏股权投资合伙企业(有限合伙);深圳市中新业股权投资合伙企业(有限合伙);深圳市中新创股权投资合伙企业(有限合伙);西藏必兴创业投资合伙企业(有限合伙);西藏碧海创业投资管理合伙企业（有限合伙）</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -587,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,16 +669,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>688671</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>39</v>
@@ -675,2299 +738,2328 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>688671</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3">
+        <v>3169</v>
+      </c>
+      <c r="S3">
+        <v>40.34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3">
+        <v>68.69431477903973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>688671</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>47.13</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>45.1</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>58.8</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>44.77</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>128669</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>626414590</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>20.04</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-35.57</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-24.9</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>77.45999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>688671</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>45.11</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>45.89</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>48.48</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>44.88</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>99007</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>460462361</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>7.98</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>1.75</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0.79</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>59.6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>688671</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>45.01</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>42.9</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>45.77</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>42.37</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>73800</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>322214016</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>7.41</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-6.52</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>-2.99</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>44.43</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>688671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>42.33</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>40.05</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>44.47</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>39.88</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>59413</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>248459375</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>10.7</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-6.64</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-2.85</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>35.77</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>688671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>39.52</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>40.07</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>41.86</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>39.28</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>45216</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>183594970</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>6.44</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0.05</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.02</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>27.22</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>688671</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>39.09</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>42.71</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>43.25</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>38.33</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>64226</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>263786485</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>12.28</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>6.59</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>2.64</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>38.66</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>688671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>51.25</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>51.25</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>51.25</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>51.25</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>24504</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>125580591</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>0</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="M9">
-        <v>14.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>58.6</v>
-      </c>
-      <c r="E10">
-        <v>61.5</v>
-      </c>
-      <c r="F10">
-        <v>61.5</v>
-      </c>
-      <c r="G10">
-        <v>56.5</v>
-      </c>
-      <c r="H10">
-        <v>107877</v>
-      </c>
-      <c r="I10">
-        <v>648543659</v>
-      </c>
-      <c r="J10">
-        <v>9.76</v>
       </c>
       <c r="K10">
         <v>20</v>
       </c>
       <c r="L10">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="M10">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>688671</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>58.6</v>
+      </c>
+      <c r="E11">
+        <v>61.5</v>
+      </c>
+      <c r="F11">
+        <v>61.5</v>
+      </c>
+      <c r="G11">
+        <v>56.5</v>
+      </c>
+      <c r="H11">
+        <v>107877</v>
+      </c>
+      <c r="I11">
+        <v>648543659</v>
+      </c>
+      <c r="J11">
+        <v>9.76</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
         <v>10.25</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>64.94</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>688671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>61.87</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>59.35</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>69.90000000000001</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>58.5</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>142238</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>910581356</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>18.54</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-3.5</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-2.15</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>85.63</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>688671</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>57.54</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>55.86</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>61.2</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>55.1</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>91485</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>527864681</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>10.28</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-5.88</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-3.49</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>55.08</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>688671</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>53.5</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>52</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>55.5</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>48</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>88182</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>454341383</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>13.43</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-6.91</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-3.86</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>53.09</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>688671</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>51.88</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>56.08</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>61.4</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>51.24</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>97827</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>555195531</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>19.54</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>7.85</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>4.08</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>58.89</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>688671</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>58</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>67.3</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>67.3</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>53.18</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>105376</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>635689161</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>25.18</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>20.01</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>11.22</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>63.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>67</v>
-      </c>
-      <c r="E16">
-        <v>70.42</v>
-      </c>
-      <c r="F16">
-        <v>80.5</v>
-      </c>
-      <c r="G16">
-        <v>61.3</v>
-      </c>
-      <c r="H16">
-        <v>135171</v>
-      </c>
-      <c r="I16">
-        <v>922090835</v>
-      </c>
-      <c r="J16">
-        <v>28.53</v>
-      </c>
-      <c r="K16">
-        <v>4.64</v>
-      </c>
-      <c r="L16">
-        <v>3.12</v>
-      </c>
-      <c r="M16">
-        <v>81.38</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>688671</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>71.84999999999999</v>
+        <v>67</v>
       </c>
       <c r="E17">
-        <v>74.05</v>
+        <v>70.42</v>
       </c>
       <c r="F17">
-        <v>78.5</v>
+        <v>80.5</v>
       </c>
       <c r="G17">
-        <v>70.45999999999999</v>
+        <v>61.3</v>
       </c>
       <c r="H17">
-        <v>116786</v>
+        <v>135171</v>
       </c>
       <c r="I17">
-        <v>865446780</v>
+        <v>922090835</v>
       </c>
       <c r="J17">
-        <v>11.42</v>
+        <v>28.53</v>
       </c>
       <c r="K17">
-        <v>5.15</v>
+        <v>4.64</v>
       </c>
       <c r="L17">
-        <v>3.63</v>
+        <v>3.12</v>
       </c>
       <c r="M17">
-        <v>70.31</v>
+        <v>81.38</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>688671</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="E18">
-        <v>78.18000000000001</v>
+        <v>74.05</v>
       </c>
       <c r="F18">
-        <v>79.7</v>
+        <v>78.5</v>
       </c>
       <c r="G18">
-        <v>70.59</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="H18">
-        <v>109916</v>
+        <v>116786</v>
       </c>
       <c r="I18">
-        <v>826600973</v>
+        <v>865446780</v>
       </c>
       <c r="J18">
-        <v>12.3</v>
+        <v>11.42</v>
       </c>
       <c r="K18">
-        <v>5.58</v>
+        <v>5.15</v>
       </c>
       <c r="L18">
-        <v>4.13</v>
+        <v>3.63</v>
       </c>
       <c r="M18">
-        <v>66.17</v>
+        <v>70.31</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>688671</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19">
-        <v>67.98999999999999</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="F19">
-        <v>77.55</v>
+        <v>79.7</v>
       </c>
       <c r="G19">
-        <v>66.68000000000001</v>
+        <v>70.59</v>
       </c>
       <c r="H19">
-        <v>98837</v>
+        <v>109916</v>
       </c>
       <c r="I19">
-        <v>717283756</v>
+        <v>826600973</v>
       </c>
       <c r="J19">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="K19">
-        <v>-13.03</v>
+        <v>5.58</v>
       </c>
       <c r="L19">
-        <v>-10.19</v>
+        <v>4.13</v>
       </c>
       <c r="M19">
-        <v>59.5</v>
+        <v>66.17</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>688671</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>65.95</v>
+        <v>76</v>
       </c>
       <c r="E20">
-        <v>60.76</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F20">
-        <v>69.59999999999999</v>
+        <v>77.55</v>
       </c>
       <c r="G20">
-        <v>60.61</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="H20">
-        <v>86688</v>
+        <v>98837</v>
       </c>
       <c r="I20">
-        <v>559925444</v>
+        <v>717283756</v>
       </c>
       <c r="J20">
-        <v>13.22</v>
+        <v>13.9</v>
       </c>
       <c r="K20">
-        <v>-10.63</v>
+        <v>-13.03</v>
       </c>
       <c r="L20">
-        <v>-7.23</v>
+        <v>-10.19</v>
       </c>
       <c r="M20">
-        <v>52.19</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>688671</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>61.29</v>
+        <v>65.95</v>
       </c>
       <c r="E21">
-        <v>58.76</v>
+        <v>60.76</v>
       </c>
       <c r="F21">
-        <v>61.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G21">
-        <v>56.83</v>
+        <v>60.61</v>
       </c>
       <c r="H21">
-        <v>62833</v>
+        <v>86688</v>
       </c>
       <c r="I21">
-        <v>370334009</v>
+        <v>559925444</v>
       </c>
       <c r="J21">
-        <v>7.69</v>
+        <v>13.22</v>
       </c>
       <c r="K21">
-        <v>-3.29</v>
+        <v>-10.63</v>
       </c>
       <c r="L21">
-        <v>-2</v>
+        <v>-7.23</v>
       </c>
       <c r="M21">
-        <v>37.83</v>
+        <v>52.19</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>688671</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>58.88</v>
+        <v>61.29</v>
       </c>
       <c r="E22">
-        <v>60.1</v>
+        <v>58.76</v>
       </c>
       <c r="F22">
-        <v>60.29</v>
+        <v>61.5</v>
       </c>
       <c r="G22">
-        <v>56.5</v>
+        <v>56.83</v>
       </c>
       <c r="H22">
-        <v>52719</v>
+        <v>62833</v>
       </c>
       <c r="I22">
-        <v>309139776</v>
+        <v>370334009</v>
       </c>
       <c r="J22">
-        <v>6.45</v>
+        <v>7.69</v>
       </c>
       <c r="K22">
-        <v>2.28</v>
+        <v>-3.29</v>
       </c>
       <c r="L22">
-        <v>1.34</v>
+        <v>-2</v>
       </c>
       <c r="M22">
-        <v>31.74</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>688671</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>59.31</v>
+        <v>58.88</v>
       </c>
       <c r="E23">
-        <v>52.96</v>
+        <v>60.1</v>
       </c>
       <c r="F23">
-        <v>59.7</v>
+        <v>60.29</v>
       </c>
       <c r="G23">
-        <v>52.88</v>
+        <v>56.5</v>
       </c>
       <c r="H23">
-        <v>57873</v>
+        <v>52719</v>
       </c>
       <c r="I23">
-        <v>322133010</v>
+        <v>309139776</v>
       </c>
       <c r="J23">
-        <v>11.35</v>
+        <v>6.45</v>
       </c>
       <c r="K23">
-        <v>-11.88</v>
+        <v>2.28</v>
       </c>
       <c r="L23">
-        <v>-7.14</v>
+        <v>1.34</v>
       </c>
       <c r="M23">
-        <v>34.84</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>688671</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>53.54</v>
+        <v>59.31</v>
       </c>
       <c r="E24">
-        <v>55.26</v>
+        <v>52.96</v>
       </c>
       <c r="F24">
-        <v>56.37</v>
+        <v>59.7</v>
       </c>
       <c r="G24">
-        <v>52.21</v>
+        <v>52.88</v>
       </c>
       <c r="H24">
-        <v>46461</v>
+        <v>57873</v>
       </c>
       <c r="I24">
-        <v>253994888</v>
+        <v>322133010</v>
       </c>
       <c r="J24">
-        <v>7.85</v>
+        <v>11.35</v>
       </c>
       <c r="K24">
-        <v>4.34</v>
+        <v>-11.88</v>
       </c>
       <c r="L24">
-        <v>2.3</v>
+        <v>-7.14</v>
       </c>
       <c r="M24">
-        <v>27.97</v>
+        <v>34.84</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>688671</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>54.25</v>
+        <v>53.54</v>
       </c>
       <c r="E25">
-        <v>53.03</v>
+        <v>55.26</v>
       </c>
       <c r="F25">
-        <v>54.85</v>
+        <v>56.37</v>
       </c>
       <c r="G25">
-        <v>51.33</v>
+        <v>52.21</v>
       </c>
       <c r="H25">
-        <v>36931</v>
+        <v>46461</v>
       </c>
       <c r="I25">
-        <v>196111479</v>
+        <v>253994888</v>
       </c>
       <c r="J25">
-        <v>6.37</v>
+        <v>7.85</v>
       </c>
       <c r="K25">
-        <v>-4.04</v>
+        <v>4.34</v>
       </c>
       <c r="L25">
-        <v>-2.23</v>
+        <v>2.3</v>
       </c>
       <c r="M25">
-        <v>22.23</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>688671</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>53.14</v>
+        <v>54.25</v>
       </c>
       <c r="E26">
-        <v>53.54</v>
+        <v>53.03</v>
       </c>
       <c r="F26">
-        <v>55.23</v>
+        <v>54.85</v>
       </c>
       <c r="G26">
-        <v>52.01</v>
+        <v>51.33</v>
       </c>
       <c r="H26">
-        <v>32640</v>
+        <v>36931</v>
       </c>
       <c r="I26">
-        <v>175234649</v>
+        <v>196111479</v>
       </c>
       <c r="J26">
-        <v>6.07</v>
+        <v>6.37</v>
       </c>
       <c r="K26">
-        <v>0.96</v>
+        <v>-4.04</v>
       </c>
       <c r="L26">
-        <v>0.51</v>
+        <v>-2.23</v>
       </c>
       <c r="M26">
-        <v>19.65</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>688671</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>53.14</v>
       </c>
       <c r="E27">
-        <v>54.91</v>
+        <v>53.54</v>
       </c>
       <c r="F27">
-        <v>57.19</v>
+        <v>55.23</v>
       </c>
       <c r="G27">
-        <v>54.21</v>
+        <v>52.01</v>
       </c>
       <c r="H27">
-        <v>52810</v>
+        <v>32640</v>
       </c>
       <c r="I27">
-        <v>293388372</v>
+        <v>175234649</v>
       </c>
       <c r="J27">
-        <v>5.57</v>
+        <v>6.07</v>
       </c>
       <c r="K27">
-        <v>2.56</v>
+        <v>0.96</v>
       </c>
       <c r="L27">
-        <v>1.37</v>
+        <v>0.51</v>
       </c>
       <c r="M27">
-        <v>31.79</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>688671</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>54.5</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>48.82</v>
+        <v>54.91</v>
       </c>
       <c r="F28">
-        <v>54.5</v>
+        <v>57.19</v>
       </c>
       <c r="G28">
-        <v>48.52</v>
+        <v>54.21</v>
       </c>
       <c r="H28">
-        <v>54463</v>
+        <v>52810</v>
       </c>
       <c r="I28">
-        <v>274265163</v>
+        <v>293388372</v>
       </c>
       <c r="J28">
-        <v>10.89</v>
+        <v>5.57</v>
       </c>
       <c r="K28">
-        <v>-11.09</v>
+        <v>2.56</v>
       </c>
       <c r="L28">
-        <v>-6.09</v>
+        <v>1.37</v>
       </c>
       <c r="M28">
-        <v>32.79</v>
+        <v>31.79</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>688671</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>49.21</v>
+        <v>54.5</v>
       </c>
       <c r="E29">
-        <v>48.15</v>
+        <v>48.82</v>
       </c>
       <c r="F29">
-        <v>49.27</v>
+        <v>54.5</v>
       </c>
       <c r="G29">
-        <v>47.6</v>
+        <v>48.52</v>
       </c>
       <c r="H29">
-        <v>24551</v>
+        <v>54463</v>
       </c>
       <c r="I29">
-        <v>118544943</v>
+        <v>274265163</v>
       </c>
       <c r="J29">
-        <v>3.42</v>
+        <v>10.89</v>
       </c>
       <c r="K29">
-        <v>-1.37</v>
+        <v>-11.09</v>
       </c>
       <c r="L29">
-        <v>-0.67</v>
+        <v>-6.09</v>
       </c>
       <c r="M29">
-        <v>14.78</v>
+        <v>32.79</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>688671</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>48.16</v>
+        <v>49.21</v>
       </c>
       <c r="E30">
-        <v>48.85</v>
+        <v>48.15</v>
       </c>
       <c r="F30">
-        <v>50.08</v>
+        <v>49.27</v>
       </c>
       <c r="G30">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="H30">
-        <v>27625</v>
+        <v>24551</v>
       </c>
       <c r="I30">
-        <v>135474740</v>
+        <v>118544943</v>
       </c>
       <c r="J30">
-        <v>4.74</v>
+        <v>3.42</v>
       </c>
       <c r="K30">
-        <v>1.45</v>
+        <v>-1.37</v>
       </c>
       <c r="L30">
-        <v>0.7</v>
+        <v>-0.67</v>
       </c>
       <c r="M30">
-        <v>16.63</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>688671</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>48.28</v>
+        <v>48.16</v>
       </c>
       <c r="E31">
-        <v>48.13</v>
+        <v>48.85</v>
       </c>
       <c r="F31">
-        <v>48.89</v>
+        <v>50.08</v>
       </c>
       <c r="G31">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="H31">
-        <v>20030</v>
+        <v>27625</v>
       </c>
       <c r="I31">
-        <v>96198896</v>
+        <v>135474740</v>
       </c>
       <c r="J31">
-        <v>2.85</v>
+        <v>4.74</v>
       </c>
       <c r="K31">
-        <v>-1.47</v>
+        <v>1.45</v>
       </c>
       <c r="L31">
-        <v>-0.72</v>
+        <v>0.7</v>
       </c>
       <c r="M31">
-        <v>12.06</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>688671</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>48.5</v>
+        <v>48.28</v>
       </c>
       <c r="E32">
-        <v>48.57</v>
+        <v>48.13</v>
       </c>
       <c r="F32">
-        <v>49.83</v>
+        <v>48.89</v>
       </c>
       <c r="G32">
-        <v>46.63</v>
+        <v>47.5</v>
       </c>
       <c r="H32">
-        <v>26583</v>
+        <v>20030</v>
       </c>
       <c r="I32">
-        <v>129077539</v>
+        <v>96198896</v>
       </c>
       <c r="J32">
-        <v>6.65</v>
+        <v>2.85</v>
       </c>
       <c r="K32">
-        <v>0.91</v>
+        <v>-1.47</v>
       </c>
       <c r="L32">
-        <v>0.44</v>
+        <v>-0.72</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>688671</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>48.28</v>
+        <v>48.5</v>
       </c>
       <c r="E33">
-        <v>47.18</v>
+        <v>48.57</v>
       </c>
       <c r="F33">
-        <v>49.91</v>
+        <v>49.83</v>
       </c>
       <c r="G33">
-        <v>46.06</v>
+        <v>46.63</v>
       </c>
       <c r="H33">
-        <v>31593</v>
+        <v>26583</v>
       </c>
       <c r="I33">
-        <v>152473748</v>
+        <v>129077539</v>
       </c>
       <c r="J33">
-        <v>7.93</v>
+        <v>6.65</v>
       </c>
       <c r="K33">
-        <v>-2.86</v>
+        <v>0.91</v>
       </c>
       <c r="L33">
-        <v>-1.39</v>
+        <v>0.44</v>
       </c>
       <c r="M33">
-        <v>19.02</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>688671</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>46.55</v>
+        <v>48.28</v>
       </c>
       <c r="E34">
-        <v>47.62</v>
+        <v>47.18</v>
       </c>
       <c r="F34">
-        <v>47.89</v>
+        <v>49.91</v>
       </c>
       <c r="G34">
-        <v>46.35</v>
+        <v>46.06</v>
       </c>
       <c r="H34">
-        <v>20669</v>
+        <v>31593</v>
       </c>
       <c r="I34">
-        <v>97684572</v>
+        <v>152473748</v>
       </c>
       <c r="J34">
-        <v>3.26</v>
+        <v>7.93</v>
       </c>
       <c r="K34">
-        <v>0.93</v>
+        <v>-2.86</v>
       </c>
       <c r="L34">
-        <v>0.44</v>
+        <v>-1.39</v>
       </c>
       <c r="M34">
-        <v>12.44</v>
+        <v>19.02</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>688671</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>48.49</v>
+        <v>46.55</v>
       </c>
       <c r="E35">
-        <v>47.11</v>
+        <v>47.62</v>
       </c>
       <c r="F35">
-        <v>48.49</v>
+        <v>47.89</v>
       </c>
       <c r="G35">
-        <v>47</v>
+        <v>46.35</v>
       </c>
       <c r="H35">
-        <v>17431</v>
+        <v>20669</v>
       </c>
       <c r="I35">
-        <v>82732863</v>
+        <v>97684572</v>
       </c>
       <c r="J35">
-        <v>3.13</v>
+        <v>3.26</v>
       </c>
       <c r="K35">
-        <v>-1.07</v>
+        <v>0.93</v>
       </c>
       <c r="L35">
-        <v>-0.51</v>
+        <v>0.44</v>
       </c>
       <c r="M35">
-        <v>10.49</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>688671</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>47.37</v>
+        <v>48.49</v>
       </c>
       <c r="E36">
-        <v>46.7</v>
+        <v>47.11</v>
       </c>
       <c r="F36">
-        <v>47.6</v>
+        <v>48.49</v>
       </c>
       <c r="G36">
-        <v>46.44</v>
+        <v>47</v>
       </c>
       <c r="H36">
-        <v>12894</v>
+        <v>17431</v>
       </c>
       <c r="I36">
-        <v>60530476</v>
+        <v>82732863</v>
       </c>
       <c r="J36">
-        <v>2.46</v>
+        <v>3.13</v>
       </c>
       <c r="K36">
-        <v>-0.87</v>
+        <v>-1.07</v>
       </c>
       <c r="L36">
-        <v>-0.41</v>
+        <v>-0.51</v>
       </c>
       <c r="M36">
-        <v>7.76</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>688671</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>46.98</v>
+        <v>47.37</v>
       </c>
       <c r="E37">
-        <v>45.19</v>
+        <v>46.7</v>
       </c>
       <c r="F37">
-        <v>47.2</v>
+        <v>47.6</v>
       </c>
       <c r="G37">
-        <v>45.07</v>
+        <v>46.44</v>
       </c>
       <c r="H37">
-        <v>21318</v>
+        <v>12894</v>
       </c>
       <c r="I37">
-        <v>98115492</v>
+        <v>60530476</v>
       </c>
       <c r="J37">
-        <v>4.56</v>
+        <v>2.46</v>
       </c>
       <c r="K37">
-        <v>-3.23</v>
+        <v>-0.87</v>
       </c>
       <c r="L37">
-        <v>-1.51</v>
+        <v>-0.41</v>
       </c>
       <c r="M37">
-        <v>12.83</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>688671</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>45.45</v>
+        <v>46.98</v>
       </c>
       <c r="E38">
-        <v>45.83</v>
+        <v>45.19</v>
       </c>
       <c r="F38">
-        <v>46.66</v>
+        <v>47.2</v>
       </c>
       <c r="G38">
-        <v>45.44</v>
+        <v>45.07</v>
       </c>
       <c r="H38">
-        <v>16083</v>
+        <v>21318</v>
       </c>
       <c r="I38">
-        <v>74190324</v>
+        <v>98115492</v>
       </c>
       <c r="J38">
-        <v>2.7</v>
+        <v>4.56</v>
       </c>
       <c r="K38">
-        <v>1.42</v>
+        <v>-3.23</v>
       </c>
       <c r="L38">
-        <v>0.64</v>
+        <v>-1.51</v>
       </c>
       <c r="M38">
-        <v>9.68</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>688671</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>46.29</v>
+        <v>45.45</v>
       </c>
       <c r="E39">
-        <v>45.45</v>
+        <v>45.83</v>
       </c>
       <c r="F39">
-        <v>46.29</v>
+        <v>46.66</v>
       </c>
       <c r="G39">
-        <v>45.18</v>
+        <v>45.44</v>
       </c>
       <c r="H39">
-        <v>11418</v>
+        <v>16083</v>
       </c>
       <c r="I39">
-        <v>52035820</v>
+        <v>74190324</v>
       </c>
       <c r="J39">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="K39">
-        <v>-0.83</v>
+        <v>1.42</v>
       </c>
       <c r="L39">
-        <v>-0.38</v>
+        <v>0.64</v>
       </c>
       <c r="M39">
-        <v>6.87</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>688671</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>45.13</v>
+        <v>46.29</v>
       </c>
       <c r="E40">
-        <v>44.5</v>
+        <v>45.45</v>
       </c>
       <c r="F40">
-        <v>45.62</v>
+        <v>46.29</v>
       </c>
       <c r="G40">
-        <v>44</v>
+        <v>45.18</v>
       </c>
       <c r="H40">
-        <v>12069</v>
+        <v>11418</v>
       </c>
       <c r="I40">
-        <v>54101161</v>
+        <v>52035820</v>
       </c>
       <c r="J40">
-        <v>3.56</v>
+        <v>2.42</v>
       </c>
       <c r="K40">
-        <v>-2.09</v>
+        <v>-0.83</v>
       </c>
       <c r="L40">
-        <v>-0.95</v>
+        <v>-0.38</v>
       </c>
       <c r="M40">
-        <v>7.27</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>688671</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>44.72</v>
+        <v>45.13</v>
       </c>
       <c r="E41">
-        <v>45.21</v>
+        <v>44.5</v>
       </c>
       <c r="F41">
-        <v>46.28</v>
+        <v>45.62</v>
       </c>
       <c r="G41">
-        <v>43.61</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>16803</v>
+        <v>12069</v>
       </c>
       <c r="I41">
-        <v>75594385</v>
+        <v>54101161</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>3.56</v>
       </c>
       <c r="K41">
-        <v>1.6</v>
+        <v>-2.09</v>
       </c>
       <c r="L41">
-        <v>0.71</v>
+        <v>-0.95</v>
       </c>
       <c r="M41">
-        <v>10.12</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>688671</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>45.13</v>
+        <v>44.72</v>
       </c>
       <c r="E42">
-        <v>44.77</v>
+        <v>45.21</v>
       </c>
       <c r="F42">
-        <v>45.38</v>
+        <v>46.28</v>
       </c>
       <c r="G42">
-        <v>44.15</v>
+        <v>43.61</v>
       </c>
       <c r="H42">
-        <v>11377</v>
+        <v>16803</v>
       </c>
       <c r="I42">
-        <v>50808985</v>
+        <v>75594385</v>
       </c>
       <c r="J42">
-        <v>2.72</v>
+        <v>6</v>
       </c>
       <c r="K42">
-        <v>-0.97</v>
+        <v>1.6</v>
       </c>
       <c r="L42">
-        <v>-0.44</v>
+        <v>0.71</v>
       </c>
       <c r="M42">
-        <v>6.85</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>688671</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>44.79</v>
+        <v>45.13</v>
       </c>
       <c r="E43">
-        <v>43.01</v>
+        <v>44.77</v>
       </c>
       <c r="F43">
-        <v>44.98</v>
+        <v>45.38</v>
       </c>
       <c r="G43">
-        <v>43.01</v>
+        <v>44.15</v>
       </c>
       <c r="H43">
-        <v>13213</v>
+        <v>11377</v>
       </c>
       <c r="I43">
-        <v>57635987</v>
+        <v>50808985</v>
       </c>
       <c r="J43">
-        <v>4.4</v>
+        <v>2.72</v>
       </c>
       <c r="K43">
-        <v>-3.93</v>
+        <v>-0.97</v>
       </c>
       <c r="L43">
-        <v>-1.76</v>
+        <v>-0.44</v>
       </c>
       <c r="M43">
-        <v>7.95</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>688671</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>43.12</v>
+        <v>44.79</v>
       </c>
       <c r="E44">
-        <v>42.4</v>
+        <v>43.01</v>
       </c>
       <c r="F44">
-        <v>43.8</v>
+        <v>44.98</v>
       </c>
       <c r="G44">
-        <v>42.27</v>
+        <v>43.01</v>
       </c>
       <c r="H44">
-        <v>10047</v>
+        <v>13213</v>
       </c>
       <c r="I44">
-        <v>42913230</v>
+        <v>57635987</v>
       </c>
       <c r="J44">
-        <v>3.56</v>
+        <v>4.4</v>
       </c>
       <c r="K44">
-        <v>-1.42</v>
+        <v>-3.93</v>
       </c>
       <c r="L44">
-        <v>-0.61</v>
+        <v>-1.76</v>
       </c>
       <c r="M44">
-        <v>6.05</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>688671</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>42.28</v>
+        <v>43.12</v>
       </c>
       <c r="E45">
-        <v>42.62</v>
+        <v>42.4</v>
       </c>
       <c r="F45">
-        <v>42.98</v>
+        <v>43.8</v>
       </c>
       <c r="G45">
-        <v>41.75</v>
+        <v>42.27</v>
       </c>
       <c r="H45">
-        <v>9849</v>
+        <v>10047</v>
       </c>
       <c r="I45">
-        <v>41734698</v>
+        <v>42913230</v>
       </c>
       <c r="J45">
-        <v>2.9</v>
+        <v>3.56</v>
       </c>
       <c r="K45">
-        <v>0.52</v>
+        <v>-1.42</v>
       </c>
       <c r="L45">
-        <v>0.22</v>
+        <v>-0.61</v>
       </c>
       <c r="M45">
-        <v>5.93</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>688671</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>42.4</v>
+        <v>42.28</v>
       </c>
       <c r="E46">
-        <v>40.84</v>
+        <v>42.62</v>
       </c>
       <c r="F46">
-        <v>42.41</v>
+        <v>42.98</v>
       </c>
       <c r="G46">
-        <v>40.84</v>
+        <v>41.75</v>
       </c>
       <c r="H46">
-        <v>10910</v>
+        <v>9849</v>
       </c>
       <c r="I46">
-        <v>45114613</v>
+        <v>41734698</v>
       </c>
       <c r="J46">
-        <v>3.68</v>
+        <v>2.9</v>
       </c>
       <c r="K46">
-        <v>-4.18</v>
+        <v>0.52</v>
       </c>
       <c r="L46">
-        <v>-1.78</v>
+        <v>0.22</v>
       </c>
       <c r="M46">
-        <v>6.57</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>688671</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>40.7</v>
+        <v>42.4</v>
       </c>
       <c r="E47">
-        <v>41.45</v>
+        <v>40.84</v>
       </c>
       <c r="F47">
-        <v>42.68</v>
+        <v>42.41</v>
       </c>
       <c r="G47">
-        <v>40.22</v>
+        <v>40.84</v>
       </c>
       <c r="H47">
-        <v>13690</v>
+        <v>10910</v>
       </c>
       <c r="I47">
-        <v>57272175</v>
+        <v>45114613</v>
       </c>
       <c r="J47">
-        <v>6.02</v>
+        <v>3.68</v>
       </c>
       <c r="K47">
-        <v>1.49</v>
+        <v>-4.18</v>
       </c>
       <c r="L47">
-        <v>0.61</v>
+        <v>-1.78</v>
       </c>
       <c r="M47">
-        <v>8.24</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>688671</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>41.5</v>
+        <v>40.7</v>
       </c>
       <c r="E48">
-        <v>43.11</v>
+        <v>41.45</v>
       </c>
       <c r="F48">
-        <v>45.69</v>
+        <v>42.68</v>
       </c>
       <c r="G48">
-        <v>41.2</v>
+        <v>40.22</v>
       </c>
       <c r="H48">
-        <v>26460</v>
+        <v>13690</v>
       </c>
       <c r="I48">
-        <v>115612710</v>
+        <v>57272175</v>
       </c>
       <c r="J48">
-        <v>10.83</v>
+        <v>6.02</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>1.49</v>
       </c>
       <c r="L48">
-        <v>1.66</v>
+        <v>0.61</v>
       </c>
       <c r="M48">
-        <v>15.93</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>688671</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>43.2</v>
+        <v>41.5</v>
       </c>
       <c r="E49">
-        <v>40.25</v>
+        <v>43.11</v>
       </c>
       <c r="F49">
-        <v>43.37</v>
+        <v>45.69</v>
       </c>
       <c r="G49">
-        <v>39.78</v>
+        <v>41.2</v>
       </c>
       <c r="H49">
-        <v>20589</v>
+        <v>26460</v>
       </c>
       <c r="I49">
-        <v>83621715</v>
+        <v>115612710</v>
       </c>
       <c r="J49">
-        <v>8.33</v>
+        <v>10.83</v>
       </c>
       <c r="K49">
-        <v>-6.63</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>-2.86</v>
+        <v>1.66</v>
       </c>
       <c r="M49">
-        <v>12.39</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>688671</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>39.87</v>
+        <v>43.2</v>
       </c>
       <c r="E50">
-        <v>41.69</v>
+        <v>40.25</v>
       </c>
       <c r="F50">
-        <v>42.41</v>
+        <v>43.37</v>
       </c>
       <c r="G50">
         <v>39.78</v>
       </c>
       <c r="H50">
-        <v>15284</v>
+        <v>20589</v>
       </c>
       <c r="I50">
-        <v>63308825</v>
+        <v>83621715</v>
       </c>
       <c r="J50">
-        <v>6.53</v>
+        <v>8.33</v>
       </c>
       <c r="K50">
-        <v>3.58</v>
+        <v>-6.63</v>
       </c>
       <c r="L50">
-        <v>1.44</v>
+        <v>-2.86</v>
       </c>
       <c r="M50">
-        <v>9.199999999999999</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>688671</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>43.34</v>
+        <v>39.87</v>
       </c>
       <c r="E51">
-        <v>43.18</v>
+        <v>41.69</v>
       </c>
       <c r="F51">
-        <v>43.59</v>
+        <v>42.41</v>
       </c>
       <c r="G51">
-        <v>41.91</v>
+        <v>39.78</v>
       </c>
       <c r="H51">
-        <v>15799</v>
+        <v>15284</v>
       </c>
       <c r="I51">
-        <v>67616267</v>
+        <v>63308825</v>
       </c>
       <c r="J51">
-        <v>4.03</v>
+        <v>6.53</v>
       </c>
       <c r="K51">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="L51">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="M51">
-        <v>9.51</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>688671</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>42.63</v>
+        <v>43.34</v>
       </c>
       <c r="E52">
-        <v>41.66</v>
+        <v>43.18</v>
       </c>
       <c r="F52">
-        <v>43.39</v>
+        <v>43.59</v>
       </c>
       <c r="G52">
-        <v>40.9</v>
+        <v>41.91</v>
       </c>
       <c r="H52">
-        <v>12488</v>
+        <v>15799</v>
       </c>
       <c r="I52">
-        <v>52066234</v>
+        <v>67616267</v>
       </c>
       <c r="J52">
-        <v>5.77</v>
+        <v>4.03</v>
       </c>
       <c r="K52">
-        <v>-3.52</v>
+        <v>3.57</v>
       </c>
       <c r="L52">
-        <v>-1.52</v>
+        <v>1.49</v>
       </c>
       <c r="M52">
-        <v>7.52</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>688671</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>41.62</v>
+        <v>42.63</v>
       </c>
       <c r="E53">
-        <v>43.69</v>
+        <v>41.66</v>
       </c>
       <c r="F53">
-        <v>44.99</v>
+        <v>43.39</v>
       </c>
       <c r="G53">
-        <v>41.37</v>
+        <v>40.9</v>
       </c>
       <c r="H53">
-        <v>20864</v>
+        <v>12488</v>
       </c>
       <c r="I53">
-        <v>90770827</v>
+        <v>52066234</v>
       </c>
       <c r="J53">
-        <v>8.69</v>
+        <v>5.77</v>
       </c>
       <c r="K53">
-        <v>4.87</v>
+        <v>-3.52</v>
       </c>
       <c r="L53">
-        <v>2.03</v>
+        <v>-1.52</v>
       </c>
       <c r="M53">
-        <v>12.56</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>688671</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>42.81</v>
+        <v>41.62</v>
       </c>
       <c r="E54">
-        <v>42.22</v>
+        <v>43.69</v>
       </c>
       <c r="F54">
-        <v>43.33</v>
+        <v>44.99</v>
       </c>
       <c r="G54">
-        <v>41.58</v>
+        <v>41.37</v>
       </c>
       <c r="H54">
-        <v>17233</v>
+        <v>20864</v>
       </c>
       <c r="I54">
-        <v>72616156</v>
+        <v>90770827</v>
       </c>
       <c r="J54">
-        <v>4.01</v>
+        <v>8.69</v>
       </c>
       <c r="K54">
-        <v>-3.36</v>
+        <v>4.87</v>
       </c>
       <c r="L54">
-        <v>-1.47</v>
+        <v>2.03</v>
       </c>
       <c r="M54">
-        <v>10.37</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>688671</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>42.23</v>
+        <v>42.81</v>
       </c>
       <c r="E55">
-        <v>41.13</v>
+        <v>42.22</v>
       </c>
       <c r="F55">
-        <v>42.38</v>
+        <v>43.33</v>
       </c>
       <c r="G55">
-        <v>40.61</v>
+        <v>41.58</v>
       </c>
       <c r="H55">
-        <v>12022</v>
+        <v>17233</v>
       </c>
       <c r="I55">
-        <v>49575335</v>
+        <v>72616156</v>
       </c>
       <c r="J55">
-        <v>4.19</v>
+        <v>4.01</v>
       </c>
       <c r="K55">
-        <v>-2.58</v>
+        <v>-3.36</v>
       </c>
       <c r="L55">
-        <v>-1.09</v>
+        <v>-1.47</v>
       </c>
       <c r="M55">
-        <v>7.24</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>688671</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>41.14</v>
+        <v>42.23</v>
       </c>
       <c r="E56">
-        <v>40.74</v>
+        <v>41.13</v>
       </c>
       <c r="F56">
-        <v>41.16</v>
+        <v>42.38</v>
       </c>
       <c r="G56">
-        <v>40.15</v>
+        <v>40.61</v>
       </c>
       <c r="H56">
-        <v>8873</v>
+        <v>12022</v>
       </c>
       <c r="I56">
-        <v>36000381</v>
+        <v>49575335</v>
       </c>
       <c r="J56">
-        <v>2.46</v>
+        <v>4.19</v>
       </c>
       <c r="K56">
-        <v>-0.95</v>
+        <v>-2.58</v>
       </c>
       <c r="L56">
-        <v>-0.39</v>
+        <v>-1.09</v>
       </c>
       <c r="M56">
-        <v>5.34</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>688671</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>40.7</v>
+        <v>41.14</v>
       </c>
       <c r="E57">
-        <v>39.08</v>
+        <v>40.74</v>
       </c>
       <c r="F57">
-        <v>40.99</v>
+        <v>41.16</v>
       </c>
       <c r="G57">
-        <v>39.04</v>
+        <v>40.15</v>
       </c>
       <c r="H57">
-        <v>11149</v>
+        <v>8873</v>
       </c>
       <c r="I57">
-        <v>44203110</v>
+        <v>36000381</v>
       </c>
       <c r="J57">
-        <v>4.79</v>
+        <v>2.46</v>
       </c>
       <c r="K57">
-        <v>-4.07</v>
+        <v>-0.95</v>
       </c>
       <c r="L57">
-        <v>-1.66</v>
+        <v>-0.39</v>
       </c>
       <c r="M57">
-        <v>6.71</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>688671</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
+        <v>40.7</v>
+      </c>
+      <c r="E58">
+        <v>39.08</v>
+      </c>
+      <c r="F58">
+        <v>40.99</v>
+      </c>
+      <c r="G58">
+        <v>39.04</v>
+      </c>
+      <c r="H58">
+        <v>11149</v>
+      </c>
+      <c r="I58">
+        <v>44203110</v>
+      </c>
+      <c r="J58">
+        <v>4.79</v>
+      </c>
+      <c r="K58">
+        <v>-4.07</v>
+      </c>
+      <c r="L58">
+        <v>-1.66</v>
+      </c>
+      <c r="M58">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>688671</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59">
         <v>39.1</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>40.49</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>41.05</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>39.1</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <v>13658</v>
       </c>
-      <c r="I58">
+      <c r="I59">
         <v>55203002</v>
       </c>
-      <c r="J58">
+      <c r="J59">
         <v>4.99</v>
       </c>
-      <c r="K58">
+      <c r="K59">
         <v>3.61</v>
       </c>
-      <c r="L58">
+      <c r="L59">
         <v>1.41</v>
       </c>
-      <c r="M58">
+      <c r="M59">
         <v>8.220000000000001</v>
       </c>
     </row>
